--- a/IO分配表.xlsx
+++ b/IO分配表.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\ESP32-S3\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B59CCE4-47B4-4CD8-8379-4E70EE9E1B00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="13725" windowHeight="12540"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
   <si>
     <t>板载IO</t>
   </si>
@@ -88,19 +94,25 @@
   </si>
   <si>
     <t>JTAG</t>
+  </si>
+  <si>
+    <t>SD_CMD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SD_CLK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SD_D0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="20">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -109,151 +121,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -268,198 +156,48 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor rgb="FFFF0000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -482,255 +220,13 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -743,71 +239,51 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1094,31 +570,51 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
+<file path=xl/webextensions/taskpanes.xml><?xml version="1.0" encoding="utf-8"?>
+<wetp:taskpanes xmlns:wetp="http://schemas.microsoft.com/office/webextensions/taskpanes/2010/11">
+  <wetp:taskpane dockstate="right" visibility="0" width="350" row="3">
+    <wetp:webextensionref xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+  </wetp:taskpane>
+</wetp:taskpanes>
+</file>
+
+<file path=xl/webextensions/webextension1.xml><?xml version="1.0" encoding="utf-8"?>
+<we:webextension xmlns:we="http://schemas.microsoft.com/office/webextensions/webextension/2010/11" id="{B25F8A3D-5C4E-40B6-A050-93BD3F72C810}">
+  <we:reference id="wa200005271" version="1.1.0.0" store="zh-CN" storeType="OMEX"/>
+  <we:alternateReferences>
+    <we:reference id="wa200005271" version="1.1.0.0" store="wa200005271" storeType="OMEX"/>
+  </we:alternateReferences>
+  <we:properties/>
+  <we:bindings/>
+  <we:snapshot xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
+</we:webextension>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="9" style="1"/>
-    <col min="3" max="3" width="21.8916666666667" style="1" customWidth="1"/>
+    <col min="3" max="3" width="21.875" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="5:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
       <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -1126,182 +622,182 @@
         <v>2</v>
       </c>
       <c r="C2" s="2"/>
-      <c r="E2" s="3">
+      <c r="E2" s="14">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
-      <c r="E3" s="4">
+      <c r="E3" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A4" s="9">
         <v>11</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="4">
+      <c r="E4" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A5" s="9">
         <v>12</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="E5" s="3">
+      <c r="C5" s="5"/>
+      <c r="E5" s="14">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A6" s="9">
         <v>13</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="E6" s="5">
+      <c r="C6" s="5"/>
+      <c r="E6" s="11">
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A7" s="9">
         <v>14</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="2"/>
-      <c r="E7" s="4">
+      <c r="C7" s="5"/>
+      <c r="E7" s="11">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="E8" s="5">
+      <c r="E8" s="11">
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A9" s="10">
         <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="C9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="7">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="2">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="A10" s="10">
         <v>18</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="E10" s="4">
+      <c r="C10" s="5"/>
+      <c r="E10" s="7">
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
-      <c r="E11" s="4">
+      <c r="E11" s="7">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>33</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="2" t="s">
+      <c r="C12" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="2">
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>34</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="2"/>
-      <c r="E13" s="5">
+      <c r="C13" s="5"/>
+      <c r="E13" s="9">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>35</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="2"/>
-      <c r="E14" s="5">
+      <c r="C14" s="5"/>
+      <c r="E14" s="9">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>36</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="E15" s="5">
+      <c r="C15" s="5"/>
+      <c r="E15" s="9">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>37</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="2"/>
-      <c r="E16" s="5">
+      <c r="C16" s="5"/>
+      <c r="E16" s="9">
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="2"/>
-      <c r="B17" s="6"/>
+      <c r="B17" s="4"/>
       <c r="C17" s="2"/>
-      <c r="E17" s="5">
+      <c r="E17" s="14">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="2">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A18" s="11">
         <v>4</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -1310,13 +806,13 @@
       <c r="C18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="4">
+      <c r="E18" s="2">
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="2">
-        <v>6</v>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A19" s="11">
+        <v>5</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>15</v>
@@ -1324,13 +820,13 @@
       <c r="C19" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E19" s="5">
+      <c r="E19" s="10">
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="2">
-        <v>15</v>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A20" s="11">
+        <v>6</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>17</v>
@@ -1338,14 +834,14 @@
       <c r="C20" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="E20" s="5">
+      <c r="E20" s="10">
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="4"/>
-      <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
       <c r="E21" s="3">
         <v>19</v>
       </c>
@@ -1353,14 +849,14 @@
         <v>19</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="4">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A22" s="12">
         <v>43</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C22" s="4"/>
+      <c r="C22" s="2"/>
       <c r="E22" s="3">
         <v>20</v>
       </c>
@@ -1368,91 +864,128 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
-      <c r="A23" s="4">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A23" s="12">
         <v>44</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="4"/>
-      <c r="E23" s="4">
+      <c r="C23" s="2"/>
+      <c r="E23" s="2">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="5:5">
-      <c r="E24" s="5">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E24" s="13">
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="5:5">
-      <c r="E25" s="5">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A25" s="8">
+        <v>7</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="E25" s="13">
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="5:5">
-      <c r="E26" s="5">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A26" s="8">
+        <v>8</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="E26" s="13">
         <v>37</v>
       </c>
     </row>
-    <row r="27" spans="5:5">
-      <c r="E27" s="4">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A27" s="8">
+        <v>9</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="E27" s="2">
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="5:6">
-      <c r="E28" s="3">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E28" s="8">
         <v>39</v>
       </c>
-      <c r="F28" s="4" t="s">
+      <c r="F28" s="5" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="29" spans="5:6">
-      <c r="E29" s="3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A29" s="3">
+        <v>19</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="E29" s="8">
         <v>40</v>
       </c>
-      <c r="F29" s="4"/>
-    </row>
-    <row r="30" spans="5:6">
-      <c r="E30" s="3">
+      <c r="F29" s="5"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A30" s="3">
+        <v>20</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="E30" s="8">
         <v>41</v>
       </c>
-      <c r="F30" s="4"/>
-    </row>
-    <row r="31" spans="5:6">
-      <c r="E31" s="3">
+      <c r="F30" s="5"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E31" s="8">
         <v>42</v>
       </c>
-      <c r="F31" s="4"/>
-    </row>
-    <row r="32" spans="5:5">
-      <c r="E32" s="3">
+      <c r="F31" s="5"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="E32" s="14">
         <v>45</v>
       </c>
-    </row>
-    <row r="33" spans="5:5">
-      <c r="E33" s="3">
+      <c r="F32" s="6"/>
+    </row>
+    <row r="33" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E33" s="14">
         <v>46</v>
       </c>
-    </row>
-    <row r="34" spans="5:5">
-      <c r="E34" s="4">
+      <c r="F33" s="6"/>
+    </row>
+    <row r="34" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E34" s="2">
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="5:5">
-      <c r="E35" s="4">
+    <row r="35" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E35" s="2">
         <v>48</v>
       </c>
     </row>
-    <row r="36" spans="5:5">
-      <c r="E36" s="4" t="s">
+    <row r="36" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E36" s="12" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="5:5">
-      <c r="E37" s="4" t="s">
+    <row r="37" spans="5:6" x14ac:dyDescent="0.15">
+      <c r="E37" s="12" t="s">
         <v>22</v>
       </c>
     </row>
@@ -1464,42 +997,36 @@
     <mergeCell ref="F28:F31"/>
     <mergeCell ref="F32:F33"/>
   </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
+  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/IO分配表.xlsx
+++ b/IO分配表.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\ESP32-S3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WorkSpace\Software\ESP32-S3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B59CCE4-47B4-4CD8-8379-4E70EE9E1B00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D1D09AF-FE79-4924-9C19-6B1E90DA79C4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="28">
   <si>
     <t>板载IO</t>
   </si>
@@ -105,6 +105,10 @@
   </si>
   <si>
     <t>SD_D0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>镜头</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -141,7 +145,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -186,18 +190,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -220,6 +218,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -242,34 +249,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -598,8 +605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -609,12 +616,12 @@
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="E1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -622,182 +629,200 @@
         <v>2</v>
       </c>
       <c r="C2" s="2"/>
-      <c r="E2" s="14">
+      <c r="E2" s="10">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F2" s="14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="E3" s="2">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A4" s="9">
+      <c r="F3" s="14"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A4" s="6">
         <v>11</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="11" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A5" s="9">
+      <c r="F4" s="14"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A5" s="6">
         <v>12</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="5"/>
-      <c r="E5" s="14">
+      <c r="C5" s="11"/>
+      <c r="E5" s="10">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A6" s="9">
+      <c r="F5" s="14"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A6" s="6">
         <v>13</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="5"/>
-      <c r="E6" s="11">
+      <c r="C6" s="11"/>
+      <c r="E6" s="10">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A7" s="9">
+      <c r="F6" s="14"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A7" s="6">
         <v>14</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="5"/>
-      <c r="E7" s="11">
+      <c r="C7" s="11"/>
+      <c r="E7" s="10">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F7" s="14"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
-      <c r="E8" s="11">
+      <c r="E8" s="10">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A9" s="10">
+      <c r="F8" s="14"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A9" s="7">
         <v>17</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E9" s="7">
+      <c r="E9" s="12">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
-      <c r="A10" s="10">
+      <c r="F9" s="14"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
+      <c r="A10" s="7">
         <v>18</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="E10" s="7">
+      <c r="C10" s="11"/>
+      <c r="E10" s="12">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F10" s="14"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
-      <c r="E11" s="7">
+      <c r="E11" s="12">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F11" s="14"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <v>33</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="11" t="s">
         <v>12</v>
       </c>
       <c r="E12" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F12" s="14"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <v>34</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C13" s="5"/>
-      <c r="E13" s="9">
+      <c r="C13" s="11"/>
+      <c r="E13" s="10">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F13" s="14"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <v>35</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="E14" s="9">
+      <c r="C14" s="11"/>
+      <c r="E14" s="10">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F14" s="14"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <v>36</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="E15" s="9">
+      <c r="C15" s="11"/>
+      <c r="E15" s="10">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F15" s="14"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <v>37</v>
       </c>
       <c r="B16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="E16" s="9">
+      <c r="C16" s="11"/>
+      <c r="E16" s="10">
         <v>14</v>
       </c>
+      <c r="F16" s="14"/>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="2"/>
       <c r="B17" s="4"/>
       <c r="C17" s="2"/>
-      <c r="E17" s="14">
+      <c r="E17" s="10">
         <v>15</v>
       </c>
+      <c r="F17" s="14"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A18" s="11">
+      <c r="A18" s="8">
         <v>4</v>
       </c>
       <c r="B18" s="2" t="s">
@@ -809,9 +834,10 @@
       <c r="E18" s="2">
         <v>16</v>
       </c>
+      <c r="F18" s="14"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A19" s="11">
+      <c r="A19" s="8">
         <v>5</v>
       </c>
       <c r="B19" s="2" t="s">
@@ -825,7 +851,7 @@
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A20" s="11">
+      <c r="A20" s="8">
         <v>6</v>
       </c>
       <c r="B20" s="2" t="s">
@@ -850,7 +876,7 @@
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A22" s="12">
+      <c r="A22" s="9">
         <v>43</v>
       </c>
       <c r="B22" s="2" t="s">
@@ -865,7 +891,7 @@
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A23" s="12">
+      <c r="A23" s="9">
         <v>44</v>
       </c>
       <c r="B23" s="2" t="s">
@@ -877,36 +903,39 @@
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="E24" s="13">
+      <c r="E24" s="5">
         <v>35</v>
       </c>
+      <c r="F24" s="13"/>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A25" s="8">
+      <c r="A25" s="5">
         <v>7</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C25" s="2"/>
-      <c r="E25" s="13">
+      <c r="E25" s="5">
         <v>36</v>
       </c>
+      <c r="F25" s="13"/>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A26" s="8">
+      <c r="A26" s="5">
         <v>8</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C26" s="2"/>
-      <c r="E26" s="13">
+      <c r="E26" s="5">
         <v>37</v>
       </c>
+      <c r="F26" s="13"/>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="A27" s="8">
+      <c r="A27" s="5">
         <v>9</v>
       </c>
       <c r="B27" s="2" t="s">
@@ -918,10 +947,10 @@
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="E28" s="8">
+      <c r="E28" s="5">
         <v>39</v>
       </c>
-      <c r="F28" s="5" t="s">
+      <c r="F28" s="11" t="s">
         <v>23</v>
       </c>
     </row>
@@ -933,10 +962,10 @@
         <v>19</v>
       </c>
       <c r="C29" s="2"/>
-      <c r="E29" s="8">
+      <c r="E29" s="5">
         <v>40</v>
       </c>
-      <c r="F29" s="5"/>
+      <c r="F29" s="11"/>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A30" s="3">
@@ -946,46 +975,56 @@
         <v>21</v>
       </c>
       <c r="C30" s="2"/>
-      <c r="E30" s="8">
+      <c r="E30" s="5">
         <v>41</v>
       </c>
-      <c r="F30" s="5"/>
+      <c r="F30" s="11"/>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="E31" s="8">
+      <c r="E31" s="5">
         <v>42</v>
       </c>
-      <c r="F31" s="5"/>
+      <c r="F31" s="11"/>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.15">
-      <c r="E32" s="14">
+      <c r="E32" s="10">
         <v>45</v>
       </c>
-      <c r="F32" s="6"/>
+      <c r="F32" s="2" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="33" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E33" s="14">
+      <c r="E33" s="10">
         <v>46</v>
       </c>
-      <c r="F33" s="6"/>
+      <c r="F33" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
     <row r="34" spans="5:6" x14ac:dyDescent="0.15">
       <c r="E34" s="2">
         <v>47</v>
       </c>
+      <c r="F34" s="2" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="35" spans="5:6" x14ac:dyDescent="0.15">
       <c r="E35" s="2">
         <v>48</v>
       </c>
+      <c r="F35" s="2" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="36" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E36" s="12" t="s">
+      <c r="E36" s="9" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="37" spans="5:6" x14ac:dyDescent="0.15">
-      <c r="E37" s="12" t="s">
+      <c r="E37" s="9" t="s">
         <v>22</v>
       </c>
     </row>
@@ -995,7 +1034,7 @@
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="C12:C16"/>
     <mergeCell ref="F28:F31"/>
-    <mergeCell ref="F32:F33"/>
+    <mergeCell ref="F2:F18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
